--- a/app/www/defaultTemplate_5year.xlsx
+++ b/app/www/defaultTemplate_5year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dupre314\Desktop\OGAC Dashboard PM and IP GEO\PRIME\Requests\DREAMS\Saturation\PoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEF1803-36F0-408A-B1BC-E8EED9F54FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{334BC55F-FBA2-4392-BA96-D2E54E483ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16035" yWindow="315" windowWidth="18780" windowHeight="20190" xr2:uid="{FE140C34-52AA-4049-97AE-88AE83C94E34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE140C34-52AA-4049-97AE-88AE83C94E34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="56">
   <si>
     <t>Country</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>AgeCohort</t>
+  </si>
+  <si>
+    <t>Enrollment_2019</t>
+  </si>
+  <si>
+    <t>Enrollment_2020</t>
+  </si>
+  <si>
+    <t>Enrollment_2021</t>
+  </si>
+  <si>
+    <t>Enrollment_2022</t>
   </si>
 </sst>
 </file>
@@ -548,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B6D62F-219B-4B89-99D4-03EE3A964FAD}">
-  <dimension ref="A1:O218"/>
+  <dimension ref="A1:S218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,19 +603,31 @@
         <v>46</v>
       </c>
       <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -638,19 +662,31 @@
         <v>85</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -685,19 +721,31 @@
         <v>85</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -732,19 +780,31 @@
         <v>85</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -779,19 +839,31 @@
         <v>85</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -826,19 +898,31 @@
         <v>85</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -873,19 +957,31 @@
         <v>85</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -920,19 +1016,31 @@
         <v>85</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -967,19 +1075,31 @@
         <v>85</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1014,19 +1134,31 @@
         <v>85</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1061,19 +1193,31 @@
         <v>85</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1108,19 +1252,31 @@
         <v>85</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1155,19 +1311,31 @@
         <v>85</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1202,19 +1370,31 @@
         <v>85</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1249,19 +1429,31 @@
         <v>85</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1296,19 +1488,31 @@
         <v>85</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1343,19 +1547,31 @@
         <v>85</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1390,19 +1606,31 @@
         <v>85</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1437,19 +1665,31 @@
         <v>85</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1484,19 +1724,31 @@
         <v>85</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1531,19 +1783,31 @@
         <v>85</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1578,19 +1842,31 @@
         <v>85</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1625,19 +1901,31 @@
         <v>85</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1672,19 +1960,31 @@
         <v>85</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1719,19 +2019,31 @@
         <v>85</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1766,19 +2078,31 @@
         <v>85</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1813,19 +2137,31 @@
         <v>85</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1860,19 +2196,31 @@
         <v>85</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1907,19 +2255,31 @@
         <v>85</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1954,19 +2314,31 @@
         <v>85</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2001,19 +2373,31 @@
         <v>85</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2048,19 +2432,31 @@
         <v>85</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2095,19 +2491,31 @@
         <v>85</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2142,19 +2550,31 @@
         <v>85</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2189,19 +2609,31 @@
         <v>85</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2236,19 +2668,31 @@
         <v>85</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2283,19 +2727,31 @@
         <v>85</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2330,19 +2786,31 @@
         <v>85</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2377,19 +2845,31 @@
         <v>85</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2424,19 +2904,31 @@
         <v>85</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2471,19 +2963,31 @@
         <v>85</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2518,19 +3022,31 @@
         <v>85</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2565,19 +3081,31 @@
         <v>85</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2612,19 +3140,31 @@
         <v>85</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2659,19 +3199,31 @@
         <v>85</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2706,19 +3258,31 @@
         <v>85</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2753,19 +3317,31 @@
         <v>85</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2800,19 +3376,31 @@
         <v>85</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2847,19 +3435,31 @@
         <v>85</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2894,19 +3494,31 @@
         <v>85</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2941,19 +3553,31 @@
         <v>85</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2988,19 +3612,31 @@
         <v>85</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3035,19 +3671,31 @@
         <v>85</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3082,19 +3730,31 @@
         <v>85</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -3129,19 +3789,31 @@
         <v>85</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3176,19 +3848,31 @@
         <v>85</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3223,19 +3907,31 @@
         <v>85</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3270,19 +3966,31 @@
         <v>85</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -3317,19 +4025,31 @@
         <v>85</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -3364,19 +4084,31 @@
         <v>85</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -3411,19 +4143,31 @@
         <v>85</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3458,19 +4202,31 @@
         <v>85</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3505,19 +4261,31 @@
         <v>85</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3552,19 +4320,31 @@
         <v>85</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3599,19 +4379,31 @@
         <v>85</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3646,19 +4438,31 @@
         <v>85</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3693,19 +4497,31 @@
         <v>85</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3740,19 +4556,31 @@
         <v>85</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3787,19 +4615,31 @@
         <v>85</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -3834,19 +4674,31 @@
         <v>85</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -3881,19 +4733,31 @@
         <v>85</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -3928,19 +4792,31 @@
         <v>85</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -3975,19 +4851,31 @@
         <v>85</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -4022,19 +4910,31 @@
         <v>85</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -4069,19 +4969,31 @@
         <v>85</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4116,19 +5028,31 @@
         <v>85</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -4163,19 +5087,31 @@
         <v>85</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -4210,19 +5146,31 @@
         <v>85</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -4257,19 +5205,31 @@
         <v>85</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4304,19 +5264,31 @@
         <v>85</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4351,19 +5323,31 @@
         <v>85</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4398,19 +5382,31 @@
         <v>85</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4445,19 +5441,31 @@
         <v>85</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4492,19 +5500,31 @@
         <v>85</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -4539,19 +5559,31 @@
         <v>85</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -4586,19 +5618,31 @@
         <v>85</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -4633,19 +5677,31 @@
         <v>85</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -4680,19 +5736,31 @@
         <v>85</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -4727,19 +5795,31 @@
         <v>85</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -4774,19 +5854,31 @@
         <v>85</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -4821,19 +5913,31 @@
         <v>85</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -4868,19 +5972,31 @@
         <v>85</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -4915,19 +6031,31 @@
         <v>85</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -4962,19 +6090,31 @@
         <v>85</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -5009,19 +6149,31 @@
         <v>85</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -5056,19 +6208,31 @@
         <v>85</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -5103,19 +6267,31 @@
         <v>85</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -5150,19 +6326,31 @@
         <v>85</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -5197,19 +6385,31 @@
         <v>85</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -5244,19 +6444,31 @@
         <v>85</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -5291,19 +6503,31 @@
         <v>85</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -5338,19 +6562,31 @@
         <v>85</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -5385,19 +6621,31 @@
         <v>85</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -5432,19 +6680,31 @@
         <v>85</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -5479,19 +6739,31 @@
         <v>85</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -5526,19 +6798,31 @@
         <v>85</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -5573,19 +6857,31 @@
         <v>85</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>27</v>
       </c>
@@ -5620,19 +6916,31 @@
         <v>85</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -5667,19 +6975,31 @@
         <v>85</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -5714,19 +7034,31 @@
         <v>85</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -5761,19 +7093,31 @@
         <v>85</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -5808,19 +7152,31 @@
         <v>85</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -5855,19 +7211,31 @@
         <v>85</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -5902,19 +7270,31 @@
         <v>85</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -5949,19 +7329,31 @@
         <v>85</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -5996,19 +7388,31 @@
         <v>85</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -6043,85 +7447,97 @@
         <v>85</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C118" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C122" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C126" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C138" s="1"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C142" s="1"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C146" s="1"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C150" s="1"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C154" s="1"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C158" s="1"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" s="1"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" s="1"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" s="1"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" s="1"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" s="1"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" s="1"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" s="1"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" s="1"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" s="1"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" s="1"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C214" s="1"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C218" s="1"/>
     </row>
   </sheetData>
